--- a/src/WMS_TestData_Secound2.xlsx
+++ b/src/WMS_TestData_Secound2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\WMS_Henderson\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07013367-7CD8-4E9B-BF5E-B0E1627F2A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FADC34-356E-4A30-AA47-BF9DC1DACE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SinBag_1" sheetId="13" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="229">
   <si>
     <t>MINDZOP0300356</t>
   </si>
@@ -425,36 +425,6 @@
     <t>CARTPL16</t>
   </si>
   <si>
-    <t>MCHS00103C03</t>
-  </si>
-  <si>
-    <t>MCHS00103C04</t>
-  </si>
-  <si>
-    <t>TOTEPE88</t>
-  </si>
-  <si>
-    <t>TOTEPE89</t>
-  </si>
-  <si>
-    <t>ATEST0605202T003</t>
-  </si>
-  <si>
-    <t>ATEST0605202T004</t>
-  </si>
-  <si>
-    <t>TOTEPE90</t>
-  </si>
-  <si>
-    <t>TOTEPE91</t>
-  </si>
-  <si>
-    <t>CARTPE90</t>
-  </si>
-  <si>
-    <t>CARTPE91</t>
-  </si>
-  <si>
     <t>CARTKEY1</t>
   </si>
   <si>
@@ -479,42 +449,6 @@
     <t>OnTrac</t>
   </si>
   <si>
-    <t>07/25/2023</t>
-  </si>
-  <si>
-    <t>MGC23180700025</t>
-  </si>
-  <si>
-    <t>SEB1230713134742</t>
-  </si>
-  <si>
-    <t>SEB1230713134740</t>
-  </si>
-  <si>
-    <t>TOTEAG70</t>
-  </si>
-  <si>
-    <t>CARTAG70</t>
-  </si>
-  <si>
-    <t>MPISIN230725008</t>
-  </si>
-  <si>
-    <t>SCB8230726121925</t>
-  </si>
-  <si>
-    <t>SCB1230724210538</t>
-  </si>
-  <si>
-    <t>SCB1230724210536</t>
-  </si>
-  <si>
-    <t>TOTEAE79</t>
-  </si>
-  <si>
-    <t>CARTAE79</t>
-  </si>
-  <si>
     <t>TOTEH19</t>
   </si>
   <si>
@@ -524,60 +458,24 @@
     <t>CARTAH20</t>
   </si>
   <si>
-    <t>TOTEAJ01</t>
-  </si>
-  <si>
     <t>TOTEAJ02</t>
   </si>
   <si>
-    <t>CARTAJ03</t>
-  </si>
-  <si>
-    <t>TOTEAJ04</t>
-  </si>
-  <si>
-    <t>TOTEAJ03</t>
-  </si>
-  <si>
     <t>SBA1230821055940</t>
   </si>
   <si>
     <t>SBA1230821055939</t>
   </si>
   <si>
-    <t>CARTAJ01</t>
-  </si>
-  <si>
     <t>CARTAJ02</t>
   </si>
   <si>
-    <t>SBA5230821055941</t>
-  </si>
-  <si>
-    <t>SBA5230821055942</t>
-  </si>
-  <si>
-    <t>CARTAJ04</t>
-  </si>
-  <si>
     <t>TOTEAJ07</t>
   </si>
   <si>
     <t>CARTAJ07</t>
   </si>
   <si>
-    <t>SEB1230821060020</t>
-  </si>
-  <si>
-    <t>SEB1230821060021</t>
-  </si>
-  <si>
-    <t>TOTEAJ08</t>
-  </si>
-  <si>
-    <t>CARTAJ08</t>
-  </si>
-  <si>
     <t>CARTAJ10</t>
   </si>
   <si>
@@ -608,18 +506,6 @@
     <t>MGW4230821060045</t>
   </si>
   <si>
-    <t>SGC202321080001</t>
-  </si>
-  <si>
-    <t>SGC202321080002</t>
-  </si>
-  <si>
-    <t>TOTEAJ57</t>
-  </si>
-  <si>
-    <t>CARTAJ57</t>
-  </si>
-  <si>
     <t>SB202308210006</t>
   </si>
   <si>
@@ -632,156 +518,18 @@
     <t>SGW5230821124321</t>
   </si>
   <si>
-    <t>SBA1230821124252</t>
-  </si>
-  <si>
-    <t>SBA1230821124251</t>
-  </si>
-  <si>
-    <t>SB202308210001</t>
-  </si>
-  <si>
-    <t>SB202308210002</t>
-  </si>
-  <si>
-    <t>TOTEAJ58</t>
-  </si>
-  <si>
-    <t>TOTEAJ59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARTAJ59                   </t>
-  </si>
-  <si>
-    <t>TOTEAJ73</t>
-  </si>
-  <si>
-    <t>TOTEAJ74</t>
-  </si>
-  <si>
-    <t>SEB5230821141026</t>
-  </si>
-  <si>
-    <t>SEB5230821141024</t>
-  </si>
-  <si>
-    <t>CARTAJ73</t>
-  </si>
-  <si>
-    <t>MEB4230822111404</t>
-  </si>
-  <si>
-    <t>MEB4230822111403</t>
-  </si>
-  <si>
-    <t>TOTEAJ35</t>
-  </si>
-  <si>
-    <t>TOTEAJ34</t>
-  </si>
-  <si>
-    <t>CARTAJ35</t>
-  </si>
-  <si>
-    <t>TOTEAJ37</t>
-  </si>
-  <si>
-    <t>CARTAJ37</t>
-  </si>
-  <si>
-    <t>SCB1230822111426</t>
-  </si>
-  <si>
-    <t>SCB1230822111425</t>
-  </si>
-  <si>
-    <t>SCB1230822111320</t>
-  </si>
-  <si>
-    <t>SCB1230822111321</t>
-  </si>
-  <si>
-    <t>TOTEAJ99</t>
-  </si>
-  <si>
-    <t>TOTEAJ98</t>
-  </si>
-  <si>
-    <t>CARTAJ98</t>
-  </si>
-  <si>
-    <t>TOTEAJ40</t>
-  </si>
-  <si>
-    <t>CARTAJ41</t>
-  </si>
-  <si>
-    <t>SBA1230821140327</t>
-  </si>
-  <si>
-    <t>SBA1230821140324</t>
-  </si>
-  <si>
     <t>TOTEAJ43</t>
   </si>
   <si>
     <t>CARTAJ43</t>
   </si>
   <si>
-    <t>TOTEAJ46</t>
-  </si>
-  <si>
-    <t>CARTAJ46</t>
-  </si>
-  <si>
     <t>SGW5230823143759</t>
   </si>
   <si>
     <t>SGW5230823143758</t>
   </si>
   <si>
-    <t>TOTEAJ90</t>
-  </si>
-  <si>
-    <t>TOTEAJ91</t>
-  </si>
-  <si>
-    <t>TOTEAJ92</t>
-  </si>
-  <si>
-    <t>CARTAJ91</t>
-  </si>
-  <si>
-    <t>CARTAJ92</t>
-  </si>
-  <si>
-    <t>SGW230823001</t>
-  </si>
-  <si>
-    <t>SGW230823002</t>
-  </si>
-  <si>
-    <t>MBC2308230016</t>
-  </si>
-  <si>
-    <t>MBC2308230015</t>
-  </si>
-  <si>
-    <t>MBC2308230020</t>
-  </si>
-  <si>
-    <t>MBC2308230019</t>
-  </si>
-  <si>
-    <t>TOTEAJ94</t>
-  </si>
-  <si>
-    <t>TOTEAJ95</t>
-  </si>
-  <si>
-    <t>CARTAJ94</t>
-  </si>
-  <si>
     <t>MGC23240800014</t>
   </si>
   <si>
@@ -801,6 +549,216 @@
   </si>
   <si>
     <t>EXPICK23824003</t>
+  </si>
+  <si>
+    <t>MCHS00101A04</t>
+  </si>
+  <si>
+    <t>MCHS00102A02</t>
+  </si>
+  <si>
+    <t>MCB1230901115904</t>
+  </si>
+  <si>
+    <t>MCB1230901115906</t>
+  </si>
+  <si>
+    <t>TOTEBJ05</t>
+  </si>
+  <si>
+    <t>TOTEBJ06</t>
+  </si>
+  <si>
+    <t>CARTBJ03</t>
+  </si>
+  <si>
+    <t>CARTBJ04</t>
+  </si>
+  <si>
+    <t>TOTEBJ07</t>
+  </si>
+  <si>
+    <t>TOTEBJ08</t>
+  </si>
+  <si>
+    <t>TOTEBJ01</t>
+  </si>
+  <si>
+    <t>CARTBJ01</t>
+  </si>
+  <si>
+    <t>SEB2230901115855</t>
+  </si>
+  <si>
+    <t>SEB2230901115853</t>
+  </si>
+  <si>
+    <t>MCB1230831105323</t>
+  </si>
+  <si>
+    <t>MCB1230831105321</t>
+  </si>
+  <si>
+    <t>TOTEBJ03</t>
+  </si>
+  <si>
+    <t>TOTEBJ04</t>
+  </si>
+  <si>
+    <t>MCB1230831105314</t>
+  </si>
+  <si>
+    <t>MCB1230831105315</t>
+  </si>
+  <si>
+    <t>CARTBJ06</t>
+  </si>
+  <si>
+    <t>CARTBJ07</t>
+  </si>
+  <si>
+    <t>SBA1230904112729</t>
+  </si>
+  <si>
+    <t>SBA1230904112727</t>
+  </si>
+  <si>
+    <t>SEB2230904112912</t>
+  </si>
+  <si>
+    <t>SEB2230904112910</t>
+  </si>
+  <si>
+    <t>TOTEBJ13</t>
+  </si>
+  <si>
+    <t>TOTEBJ14</t>
+  </si>
+  <si>
+    <t>CARTBJ14</t>
+  </si>
+  <si>
+    <t>SB202304090005</t>
+  </si>
+  <si>
+    <t>SB202304090006</t>
+  </si>
+  <si>
+    <t>TOTEBJ15</t>
+  </si>
+  <si>
+    <t>TOTEBJ16</t>
+  </si>
+  <si>
+    <t>CARTBJ15</t>
+  </si>
+  <si>
+    <t>TOTEBJ17</t>
+  </si>
+  <si>
+    <t>CARTBJ17</t>
+  </si>
+  <si>
+    <t>SBA1230905112945</t>
+  </si>
+  <si>
+    <t>SBA1230905112943</t>
+  </si>
+  <si>
+    <t>SB202304090019</t>
+  </si>
+  <si>
+    <t>EXP0109230002</t>
+  </si>
+  <si>
+    <t>MGWCS20230109002</t>
+  </si>
+  <si>
+    <t>SBC240824002</t>
+  </si>
+  <si>
+    <t>TOTEBJ18</t>
+  </si>
+  <si>
+    <t>CARTBJ18</t>
+  </si>
+  <si>
+    <t>09/04/2023</t>
+  </si>
+  <si>
+    <t>USSG230904113223</t>
+  </si>
+  <si>
+    <t>USSG230904113225</t>
+  </si>
+  <si>
+    <t>SB202304090040</t>
+  </si>
+  <si>
+    <t>SB202304090039</t>
+  </si>
+  <si>
+    <t>TOTEBJ19</t>
+  </si>
+  <si>
+    <t>CARTBJ19</t>
+  </si>
+  <si>
+    <t>SCB1230905113016</t>
+  </si>
+  <si>
+    <t>SCB1230905113018</t>
+  </si>
+  <si>
+    <t>SGC1230905113116</t>
+  </si>
+  <si>
+    <t>SGC1230905113115</t>
+  </si>
+  <si>
+    <t>CARTBJ20</t>
+  </si>
+  <si>
+    <t>TOTEBJ20</t>
+  </si>
+  <si>
+    <t>SGC1230905113109</t>
+  </si>
+  <si>
+    <t>SGC1230905113107</t>
+  </si>
+  <si>
+    <t>TOTEBJ28</t>
+  </si>
+  <si>
+    <t>CARTBJ28</t>
+  </si>
+  <si>
+    <t>TOTEBJ31</t>
+  </si>
+  <si>
+    <t>TOTEBJ32</t>
+  </si>
+  <si>
+    <t>EXPICK00623003</t>
+  </si>
+  <si>
+    <t>EXPICK00623004</t>
+  </si>
+  <si>
+    <t>CARTBJ31</t>
+  </si>
+  <si>
+    <t>MBTEST2309060001</t>
+  </si>
+  <si>
+    <t>MBTEST2309060002</t>
+  </si>
+  <si>
+    <t>TOTEBJ35</t>
+  </si>
+  <si>
+    <t>CARTBJ35</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54877A9E-DDCD-4AF8-837D-7A513612C82A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1342,10 +1300,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -1369,13 +1327,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1472,10 +1430,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>236</v>
+        <v>152</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1499,16 +1457,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1531,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885ED6FE-059A-4B79-8B1D-61C7F36906DA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1605,10 +1563,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1632,16 +1590,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1664,7 +1622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB1C27C-63A7-4B23-9CEE-8B73EC35827F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
@@ -1738,10 +1696,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -1765,16 +1723,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -1798,7 +1756,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1853,10 +1811,10 @@
         <v>16</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>12</v>
@@ -1870,10 +1828,10 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -1897,22 +1855,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>15</v>
@@ -1934,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310205EE-CAFF-40F5-B011-64E0293D21E5}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="H1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2008,10 +1966,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2035,16 +1993,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2067,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5462434B-992E-4B2E-8CD6-7E9E2B48C002}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2145,10 +2103,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2172,13 +2130,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2207,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FB6485-1DF9-458C-BC8A-18058BEB6D68}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2283,10 +2241,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2310,13 +2268,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2421,10 +2379,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2448,13 +2406,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>15</v>
@@ -2485,8 +2443,8 @@
   </sheetPr>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2562,10 +2520,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2632,7 +2590,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2706,10 +2664,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2733,16 +2691,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -2833,10 +2791,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -2860,13 +2818,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -2888,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38A3FB7-D6D4-4898-B373-0058A8E69792}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2952,10 +2910,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -2979,16 +2937,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3014,8 +2972,8 @@
   </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="I1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3092,10 +3050,10 @@
     </row>
     <row r="2" spans="1:17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -3119,16 +3077,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -3152,7 +3110,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3210,10 +3168,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3237,13 +3195,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3266,7 +3224,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3296,10 +3254,10 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>142</v>
+        <v>204</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>57</v>
@@ -3319,7 +3277,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3342,7 +3300,7 @@
     </row>
     <row r="2" spans="1:3" ht="66.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -3362,7 +3320,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3389,7 +3347,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -3411,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CBAF4-DCE9-420A-B78D-FEF677E49528}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3470,10 +3428,10 @@
     </row>
     <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -3497,13 +3455,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -3526,7 +3484,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3548,10 +3506,10 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -3567,14 +3525,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -3582,10 +3540,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3724,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B94814-EB50-4A8A-A78A-A2B18233562E}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3794,10 +3752,10 @@
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -3821,13 +3779,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -4232,8 +4190,8 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4328,10 +4286,10 @@
     </row>
     <row r="2" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -4355,25 +4313,25 @@
         <v>25</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>15</v>
@@ -4385,10 +4343,10 @@
         <v>19</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>73</v>
@@ -5216,8 +5174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E96EC-6D21-4517-BD12-5F13BABFEFDB}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5288,10 +5246,10 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -5315,13 +5273,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -5343,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA95A3-AAE3-427E-B43E-7C5E2BB7D285}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5414,10 +5372,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5441,13 +5399,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5540,10 +5498,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5567,13 +5525,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5596,7 +5554,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5667,10 +5625,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -5694,13 +5652,13 @@
         <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
@@ -5722,7 +5680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56ABB4E5-A589-43AC-B252-9C550B8EFEFB}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -5798,10 +5756,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5825,16 +5783,16 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>15</v>
@@ -5938,10 +5896,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
@@ -5965,22 +5923,22 @@
         <v>25</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>15</v>
